--- a/Reports.xlsx
+++ b/Reports.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Litres production calculation" sheetId="1" r:id="rId1"/>
     <sheet name="Reports" sheetId="2" r:id="rId2"/>
+    <sheet name="Smoothened cut" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -211,7 +212,20 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -221,19 +235,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -724,11 +725,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="283787664"/>
-        <c:axId val="283788208"/>
+        <c:axId val="-1635167776"/>
+        <c:axId val="-1635174304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="283787664"/>
+        <c:axId val="-1635167776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -771,7 +772,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="283788208"/>
+        <c:crossAx val="-1635174304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -779,7 +780,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="283788208"/>
+        <c:axId val="-1635174304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -830,7 +831,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="283787664"/>
+        <c:crossAx val="-1635167776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1810,46 +1811,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="22" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="14" t="s">
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="16" t="s">
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="15" t="s">
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="17" t="s">
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="14" t="s">
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="19" t="s">
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
     </row>
     <row r="2" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1932,7 +1933,7 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="21">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
       <c r="B3" s="1"/>
@@ -1975,7 +1976,7 @@
         <v>43209</v>
       </c>
       <c r="Y3" s="8"/>
-      <c r="Z3" s="20">
+      <c r="Z3" s="14">
         <v>5094</v>
       </c>
     </row>
@@ -1995,7 +1996,7 @@
       <c r="I4" s="4">
         <v>43239</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="15">
         <v>1</v>
       </c>
       <c r="L4" s="4">
@@ -2031,7 +2032,7 @@
       <c r="C5" s="4">
         <v>43270</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="15">
         <v>1</v>
       </c>
       <c r="E5">
@@ -2040,7 +2041,7 @@
       <c r="F5" s="4">
         <v>43270</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="15">
         <v>1</v>
       </c>
       <c r="H5">
@@ -2118,7 +2119,7 @@
       <c r="U6" s="4">
         <v>43300</v>
       </c>
-      <c r="V6" s="21">
+      <c r="V6" s="15">
         <v>1</v>
       </c>
       <c r="X6" s="9">
@@ -2169,7 +2170,7 @@
       <c r="O7" s="4">
         <v>43331</v>
       </c>
-      <c r="P7" s="21">
+      <c r="P7" s="15">
         <v>1</v>
       </c>
       <c r="Q7">
@@ -2298,7 +2299,7 @@
       <c r="L9" s="4">
         <v>43392</v>
       </c>
-      <c r="M9" s="21">
+      <c r="M9" s="15">
         <v>1</v>
       </c>
       <c r="N9">
@@ -2608,7 +2609,7 @@
       <c r="R13" s="4">
         <v>43515</v>
       </c>
-      <c r="S13" s="21">
+      <c r="S13" s="15">
         <v>1</v>
       </c>
       <c r="T13">
@@ -2684,7 +2685,7 @@
         <v>43543</v>
       </c>
       <c r="Y14" s="12">
-        <f t="shared" ref="Y4:Y14" si="1">AVERAGE(W14,T14,Q14,N14,H14,E14,B14)*8</f>
+        <f t="shared" ref="Y14" si="1">AVERAGE(W14,T14,Q14,N14,H14,E14,B14)*8</f>
         <v>0</v>
       </c>
     </row>
@@ -3179,7 +3180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T12" sqref="T12:U12"/>
     </sheetView>
   </sheetViews>
@@ -3188,4 +3189,79 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Reports.xlsx
+++ b/Reports.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Litres production calculation" sheetId="1" r:id="rId1"/>
@@ -601,6 +601,12 @@
                 <c:pt idx="6">
                   <c:v>4.8</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -725,11 +731,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1635167776"/>
-        <c:axId val="-1635174304"/>
+        <c:axId val="588632304"/>
+        <c:axId val="588617072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1635167776"/>
+        <c:axId val="588632304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -772,7 +778,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1635174304"/>
+        <c:crossAx val="588617072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -780,7 +786,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1635174304"/>
+        <c:axId val="588617072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -831,7 +837,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1635167776"/>
+        <c:crossAx val="588632304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1779,8 +1785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA28"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2675,18 +2681,24 @@
       <c r="S14">
         <v>2</v>
       </c>
+      <c r="T14">
+        <v>9.3000000000000007</v>
+      </c>
       <c r="U14" s="4">
         <v>43543</v>
       </c>
       <c r="V14">
         <v>9</v>
       </c>
+      <c r="W14">
+        <v>4.9000000000000004</v>
+      </c>
       <c r="X14" s="9">
         <v>43543</v>
       </c>
       <c r="Y14" s="12">
         <f t="shared" ref="Y14" si="1">AVERAGE(W14,T14,Q14,N14,H14,E14,B14)*8</f>
-        <v>0</v>
+        <v>37.866666666666667</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
@@ -2715,7 +2727,7 @@
         <v>12</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="L15" s="4">
         <v>43574</v>
@@ -2735,18 +2747,24 @@
       <c r="S15">
         <v>3</v>
       </c>
+      <c r="T15">
+        <v>8.6</v>
+      </c>
       <c r="U15" s="4">
         <v>43574</v>
       </c>
       <c r="V15">
         <v>10</v>
       </c>
+      <c r="W15">
+        <v>4</v>
+      </c>
       <c r="X15" s="9">
         <v>43574</v>
       </c>
       <c r="Y15" s="12">
         <f t="shared" ref="Y15:Y19" si="2">AVERAGE(W15,T15,Q15,N15,H15,E15,B15)*8</f>
-        <v>0</v>
+        <v>33.6</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
@@ -2778,7 +2796,7 @@
         <v>13</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="L16" s="6">
         <v>43604</v>
@@ -2798,18 +2816,24 @@
       <c r="S16">
         <v>4</v>
       </c>
+      <c r="T16">
+        <v>4.9000000000000004</v>
+      </c>
       <c r="U16" s="4">
         <v>43604</v>
       </c>
       <c r="V16">
         <v>11</v>
       </c>
+      <c r="W16">
+        <v>3.03</v>
+      </c>
       <c r="X16" s="9">
         <v>43604</v>
       </c>
       <c r="Y16" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15.86</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
@@ -3195,7 +3219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A12"/>
     </sheetView>
   </sheetViews>
